--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,93 +40,99 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>guilty</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -148,31 +154,28 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -708,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -758,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,16 +832,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8942307692307693</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.5666666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="L11">
         <v>34</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,16 +1132,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.5066666666666667</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1176,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.4210526315789473</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.2962962962962963</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.2121212121212121</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,7 +1311,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1326,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.2083333333333333</v>
+        <v>0.03916211293260474</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1376,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.04098360655737705</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1053</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,31 +1429,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19">
-        <v>0.01054216867469879</v>
-      </c>
-      <c r="L19">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>657</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1484,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.45</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1502,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1510,13 +1489,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.425531914893617</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1528,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1536,13 +1515,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4202898550724637</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1554,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1562,13 +1541,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4117647058823529</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1580,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1588,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1606,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1614,13 +1593,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3461538461538461</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1632,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1640,13 +1619,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3142857142857143</v>
+        <v>0.375</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1658,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1666,13 +1645,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3076923076923077</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1684,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1692,13 +1671,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3043478260869565</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1710,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1718,13 +1697,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2857142857142857</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1736,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1744,13 +1723,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1762,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1770,24 +1749,76 @@
         <v>37</v>
       </c>
       <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
         <v>0.07692307692307693</v>
       </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>72</v>
       </c>
     </row>
